--- a/Resultados/Mercado mundial - Lechuga y achicoria.xlsx
+++ b/Resultados/Mercado mundial - Lechuga y achicoria.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="United States of America" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="India" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Spain" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Italy" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Italia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -722,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United States of America'!$B$12:$B$73</f>
+              <f>'Estados Unidos de América'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United States of America'!$C$12:$C$73</f>
+              <f>'Estados Unidos de América'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Spain'!$B$12:$B$73</f>
+              <f>'España'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Spain'!$C$12:$C$73</f>
+              <f>'España'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Italy'!$B$12:$B$73</f>
+              <f>'Italia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Italy'!$C$12:$C$73</f>
+              <f>'Italia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>1261377</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.2653</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>28084971.27</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.2653</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2380460.83</v>
@@ -2161,10 +2160,10 @@
         <v>1266830</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.2042</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>28128996.97</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.2042</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2388357.64</v>
@@ -2183,10 +2182,10 @@
         <v>1268993</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.4143</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>28443524.01</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.4143</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2439727.81</v>
@@ -2205,10 +2204,10 @@
         <v>1234742</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.3419</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>27586474.33</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.3419</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2266474.34</v>
@@ -2227,10 +2226,10 @@
         <v>1234919</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.0641</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>27247341.83</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.0641</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2309618.11</v>
@@ -2249,10 +2248,10 @@
         <v>1237573</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.9268</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>27135983.56</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.9268</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2223093.32</v>
@@ -2271,10 +2270,10 @@
         <v>1229594</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.762</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>26758399.34</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.762</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2187299.27</v>
@@ -2293,10 +2292,10 @@
         <v>1203920</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>21.8915</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26355618.4</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>21.8915</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2137430.56</v>
@@ -2315,10 +2314,10 @@
         <v>1221833</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>21.578</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>26364669.64</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>21.578</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2115195.53</v>
@@ -2337,10 +2336,10 @@
         <v>1171510</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.4999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>25187287.21</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.4999</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2034017.91</v>
@@ -2359,10 +2358,10 @@
         <v>1144243</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>21.5226</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>24627077.08</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>21.5226</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2025850</v>
@@ -2381,10 +2380,10 @@
         <v>1160754</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22.1732</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>25737639.91</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22.1732</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1929675</v>
@@ -2403,10 +2402,10 @@
         <v>1149496</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>21.8418</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25107005.27</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>21.8418</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1881283</v>
@@ -2425,10 +2424,10 @@
         <v>1144736</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21.5419</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>24659784.7</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21.5419</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1792171</v>
@@ -2447,10 +2446,10 @@
         <v>1117231</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>21.6381</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>24174760.18</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>21.6381</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1670793</v>
@@ -2469,10 +2468,10 @@
         <v>1105834</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>21.5448</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23825016.98</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>21.5448</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1680594</v>
@@ -2491,10 +2490,10 @@
         <v>1102142</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21.5446</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>23745208.82</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21.5446</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1671003</v>
@@ -2513,10 +2512,10 @@
         <v>1101779</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>21.435</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>23616649.94</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>21.435</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1680345</v>
@@ -2535,10 +2534,10 @@
         <v>1039804</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>21.7213</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22585945.11</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>21.7213</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1570564</v>
@@ -2557,10 +2556,10 @@
         <v>1055197</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.3545</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>22533173.2</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.3545</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1544251</v>
@@ -2579,10 +2578,10 @@
         <v>962408</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.3058</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21467326.77</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.3058</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1523532</v>
@@ -2601,10 +2600,10 @@
         <v>926295</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>21.8951</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>20281335.08</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>21.8951</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1505554</v>
@@ -2623,10 +2622,10 @@
         <v>879499</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.4184</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18837442.47</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.4184</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1356304</v>
@@ -2645,10 +2644,10 @@
         <v>855539</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.5047</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18398133.31</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.5047</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1295885.02</v>
@@ -2667,10 +2666,10 @@
         <v>816595</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>21.0528</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17191619.25</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>21.0528</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1214233.22</v>
@@ -2689,10 +2688,10 @@
         <v>778897</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20.7333</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>16149101.74</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20.7333</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1188517.99</v>
@@ -2711,10 +2710,10 @@
         <v>752924</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>21.7864</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16403499.12</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>21.7864</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1124414.78</v>
@@ -2733,10 +2732,10 @@
         <v>719802</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>21.3049</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>15335316.6</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>21.3049</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1063094</v>
@@ -2755,10 +2754,10 @@
         <v>666867</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>21.487</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>14328983.91</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>21.487</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>998685</v>
@@ -2777,10 +2776,10 @@
         <v>664328</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21.467</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>14261119.67</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21.467</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1018223</v>
@@ -2799,10 +2798,10 @@
         <v>620264</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>21.3656</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13252335.96</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>21.3656</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1066435</v>
@@ -2821,10 +2820,10 @@
         <v>577524</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>21.9915</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12700620.47</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>21.9915</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>975201</v>
@@ -2843,10 +2842,10 @@
         <v>566663</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>21.0705</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11939883.36</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>21.0705</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>911169</v>
@@ -2865,10 +2864,10 @@
         <v>547860</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>21.1231</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>11572518</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>21.1231</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>816834</v>
@@ -2887,10 +2886,10 @@
         <v>539802</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>20.8507</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>11255251</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>20.8507</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>789395</v>
@@ -2909,10 +2908,10 @@
         <v>525661</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>20.5464</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10800439</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>20.5464</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>725370</v>
@@ -2931,10 +2930,10 @@
         <v>500523</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>20.376</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10198636</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>20.376</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>718668</v>
@@ -2953,10 +2952,10 @@
         <v>485692</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>19.5297</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9485422</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>19.5297</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>667899</v>
@@ -2975,10 +2974,10 @@
         <v>485770</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>19.4224</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9434817</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>19.4224</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>600646</v>
@@ -2997,10 +2996,10 @@
         <v>478449</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>19.6008</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9377984</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>19.6008</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>586736</v>
@@ -3019,10 +3018,10 @@
         <v>463832</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>18.9179</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8774740</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>18.9179</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>531745</v>
@@ -3041,10 +3040,10 @@
         <v>461382</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>19.5025</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8998123</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>19.5025</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>536068</v>
@@ -3063,10 +3062,10 @@
         <v>455694</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>19.217</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8757080</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>19.217</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>518287</v>
@@ -3085,10 +3084,10 @@
         <v>451545</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>18.7117</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8449156</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>18.7117</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>528413</v>
@@ -3107,10 +3106,10 @@
         <v>453007</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>18.3781</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8325414</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>18.3781</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>504411</v>
@@ -3129,10 +3128,10 @@
         <v>446415</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18.1533</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8103886</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>18.1533</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>472975</v>
@@ -3151,10 +3150,10 @@
         <v>430782</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>18.4382</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7942862</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>18.4382</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>458472</v>
@@ -3173,10 +3172,10 @@
         <v>417299</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18.1426</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7570875</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>18.1426</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>458126</v>
@@ -3195,10 +3194,10 @@
         <v>414659</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.0097</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7467882</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18.0097</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>473207</v>
@@ -3217,10 +3216,10 @@
         <v>409343</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17.9156</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7333632</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17.9156</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>428129</v>
@@ -3239,10 +3238,10 @@
         <v>401904</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>17.9243</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7203833</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>17.9243</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>434143</v>
@@ -3261,10 +3260,10 @@
         <v>394078</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>17.4723</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6885464</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>17.4723</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>413635</v>
@@ -3283,10 +3282,10 @@
         <v>387697</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>17.5305</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6796536</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>17.5305</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>406875</v>
@@ -3305,10 +3304,10 @@
         <v>387085</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16.9551</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>6563049</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>16.9551</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>407957</v>
@@ -3327,10 +3326,10 @@
         <v>403085</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>16.8293</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6783629</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>16.8293</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>393752</v>
@@ -3349,10 +3348,10 @@
         <v>394140</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>16.3465</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6442808</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>16.3465</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>364701</v>
@@ -3371,10 +3370,10 @@
         <v>393614</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>16.3115</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>6420428</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>16.3115</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>367473</v>
@@ -3392,10 +3391,10 @@
         <v>389702</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>15.9958</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>6233613</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>15.9958</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>329556</v>
@@ -3413,10 +3412,10 @@
         <v>385342</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>16.0859</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6198555</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>16.0859</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>338297</v>
@@ -3434,10 +3433,10 @@
         <v>381664</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>15.8806</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6061059</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>15.8806</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>320970</v>
@@ -3455,10 +3454,10 @@
         <v>390213</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>15.7064</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6128853</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>15.7064</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>284805</v>
@@ -3476,10 +3475,10 @@
         <v>389137</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>15.6398</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6086019</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>15.6398</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>253145</v>
@@ -3497,10 +3496,10 @@
         <v>434747</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>15.2188</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6616339</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>15.2188</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>252325</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4258,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4314,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4328,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4676,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>46792.38</v>
+        <v>789681.7500000002</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01965685778580948</v>
+        <v>0.3317348221184552</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>742889.3700000003</v>
+        <v>2380460.83</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3120779643326458</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>2380460.83</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>633666</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>23.5213</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>14904686.08</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>23.5213</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5041,10 +5031,10 @@
         <v>629752</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>23.5691</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>14842674.95</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>23.5691</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5061,10 +5051,10 @@
         <v>625773</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>23.9736</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>15002019.07</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>23.9736</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5081,10 +5071,10 @@
         <v>625031</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>23.7898</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14869364.22</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>23.7898</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.18</v>
@@ -5103,10 +5093,10 @@
         <v>619440</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.6611</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14656641.55</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.6611</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>120</v>
@@ -5125,10 +5115,10 @@
         <v>610551</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>23.7001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>14470120.26</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>23.7001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3.26</v>
@@ -5147,10 +5137,10 @@
         <v>607798</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.6129</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>14351893.39</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.6129</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3.87</v>
@@ -5169,10 +5159,10 @@
         <v>596375</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>23.6191</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>14085845.74</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>23.6191</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>62.54</v>
@@ -5191,10 +5181,10 @@
         <v>627488</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>23.7077</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>14876263.14</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>23.7077</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24.89</v>
@@ -5213,10 +5203,10 @@
         <v>591637</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>23.4625</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13881274.08</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>23.4625</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>386.05</v>
@@ -5235,10 +5225,10 @@
         <v>570000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>23.6842</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>13500000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>23.6842</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5257,10 +5247,10 @@
         <v>575000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>24.3478</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>14000000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>24.3478</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5279,10 +5269,10 @@
         <v>570000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>23.5614</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>13430000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>23.5614</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5301,10 +5291,10 @@
         <v>563000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>23.0906</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>13000000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>23.0906</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5323,10 +5313,10 @@
         <v>550000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>23.3636</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>12850000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>23.3636</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5345,10 +5335,10 @@
         <v>545000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>22.9358</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>12500000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>22.9358</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1</v>
@@ -5367,10 +5357,10 @@
         <v>535000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>22.4299</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>12000000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>22.4299</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1</v>
@@ -5389,10 +5379,10 @@
         <v>525000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>22.0952</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>11600000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>22.0952</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5411,10 +5401,10 @@
         <v>495627</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.1941</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11000000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.1941</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -5433,10 +5423,10 @@
         <v>500000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>10500000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4</v>
@@ -5455,10 +5445,10 @@
         <v>420000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>23.8095</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>10000000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>23.8095</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4</v>
@@ -5477,10 +5467,10 @@
         <v>400000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9000000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>22.5</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>8</v>
@@ -5499,10 +5489,10 @@
         <v>350000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.7143</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7600000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.7143</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>11</v>
@@ -5521,10 +5511,10 @@
         <v>330000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.9697</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7250000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.9697</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>18.08</v>
@@ -5543,10 +5533,10 @@
         <v>290000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.6897</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6000000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.6897</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>85</v>
@@ -5565,10 +5555,10 @@
         <v>260000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21.7308</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5650000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21.7308</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>81</v>
@@ -5587,10 +5577,10 @@
         <v>244000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>22.541</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5500000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>22.541</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>331</v>
@@ -5609,10 +5599,10 @@
         <v>210000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>25.7143</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>5400000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>25.7143</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>696</v>
@@ -5631,10 +5621,10 @@
         <v>180000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>4500000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>25</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1086</v>
@@ -5653,10 +5643,10 @@
         <v>170000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>24.7059</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4200000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>24.7059</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>825</v>
@@ -5675,10 +5665,10 @@
         <v>140000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3500000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>25</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1151</v>
@@ -5697,10 +5687,10 @@
         <v>100000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2800000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>28</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>299</v>
@@ -5719,10 +5709,10 @@
         <v>115000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>24</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2760000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>24</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5741,10 +5731,10 @@
         <v>105000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>23.8857</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2508000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>23.8857</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5763,10 +5753,10 @@
         <v>100000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2280000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>22.8</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5785,10 +5775,10 @@
         <v>95000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>22.9474</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2180000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>22.9474</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5807,10 +5797,10 @@
         <v>90000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>23.3333</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>23.3333</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5829,10 +5819,10 @@
         <v>90000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>22.2222</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>22.2222</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5851,10 +5841,10 @@
         <v>90000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>21.6667</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1950000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>21.6667</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5873,10 +5863,10 @@
         <v>85000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>21.7647</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1850000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>21.7647</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5895,10 +5885,10 @@
         <v>80000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>21.25</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5917,10 +5907,10 @@
         <v>75000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>21.3333</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>21.3333</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5939,10 +5929,10 @@
         <v>70000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>21.5714</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1510000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>21.5714</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5961,10 +5951,10 @@
         <v>65000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>20.2308</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1315000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>20.2308</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5983,10 +5973,10 @@
         <v>65000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>20.9231</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1360000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>20.9231</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6005,10 +5995,10 @@
         <v>68000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>19.5588</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1330000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>19.5588</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6027,10 +6017,10 @@
         <v>60000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>21.8333</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1310000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>21.8333</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6049,10 +6039,10 @@
         <v>60000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>21.8333</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1310000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>21.8333</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6071,10 +6061,10 @@
         <v>60000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>21.8333</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1310000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>21.8333</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6093,10 +6083,10 @@
         <v>60000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>21.9167</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1315000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>21.9167</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6115,10 +6105,10 @@
         <v>60000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1305000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>21.75</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6137,10 +6127,10 @@
         <v>55000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>20.7273</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1140000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>20.7273</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6159,10 +6149,10 @@
         <v>55000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>21.8182</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1200000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>21.8182</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6181,10 +6171,10 @@
         <v>50000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1080000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>21.6</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6203,10 +6193,10 @@
         <v>70000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>20.7143</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1450000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>20.7143</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6225,10 +6215,10 @@
         <v>70000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>19.1429</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1340000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>19.1429</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6247,10 +6237,10 @@
         <v>75000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1350000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>18</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6268,10 +6258,10 @@
         <v>75000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>17.8667</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1340000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>17.8667</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6289,10 +6279,10 @@
         <v>80000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6310,10 +6300,10 @@
         <v>80000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>16.625</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1330000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>16.625</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6331,10 +6321,10 @@
         <v>90000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>16.5556</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1490000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>16.5556</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6352,10 +6342,10 @@
         <v>105000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>15.9048</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1670000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>15.9048</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6373,10 +6363,10 @@
         <v>150000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2220000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>14.8</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6712,7 +6702,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6791,10 +6781,10 @@
         <v>134358</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>35.0728</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4712305</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>35.0728</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>389284.94</v>
@@ -6813,10 +6803,10 @@
         <v>137312</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>32.4125</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4450627</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>32.4125</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>511522.91</v>
@@ -6835,10 +6825,10 @@
         <v>139213</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>32.1138</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4470653</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>32.1138</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>426694.09</v>
@@ -6857,10 +6847,10 @@
         <v>105665</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>36.2241</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3827618</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>36.2241</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>375961.13</v>
@@ -6879,10 +6869,10 @@
         <v>105700</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.138</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3714083</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.138</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>363707.33</v>
@@ -6901,10 +6891,10 @@
         <v>115580</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>31.6008</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3652420</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>31.6008</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>285273.92</v>
@@ -6923,10 +6913,10 @@
         <v>131640</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>34.2429</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4507730</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>34.2429</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>276319.94</v>
@@ -6945,10 +6935,10 @@
         <v>128161</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>36.5324</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4682031</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>36.5324</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>222750.73</v>
@@ -6967,10 +6957,10 @@
         <v>105660</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>35.9216</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3795480</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>35.9216</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>228926.44</v>
@@ -6989,10 +6979,10 @@
         <v>107240</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>35.3519</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3791140</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>35.3519</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>208103.65</v>
@@ -7011,10 +7001,10 @@
         <v>111330</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>34.3951</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3829210</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>34.3951</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>189554</v>
@@ -7033,10 +7023,10 @@
         <v>114530</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>36.4587</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4175610</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>36.4587</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>161888</v>
@@ -7055,10 +7045,10 @@
         <v>105137</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>38.7191</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4070815</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>38.7191</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>174969</v>
@@ -7077,10 +7067,10 @@
         <v>106230</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>38.648</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4105580</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>38.648</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>152092</v>
@@ -7099,10 +7089,10 @@
         <v>105300</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>36.3475</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3827390</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>36.3475</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>136887</v>
@@ -7121,10 +7111,10 @@
         <v>112670</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>35.6314</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4014590</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>35.6314</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>123611</v>
@@ -7143,10 +7133,10 @@
         <v>120921</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>36.0571</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>4360066</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>36.0571</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>111399</v>
@@ -7165,10 +7155,10 @@
         <v>129946</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>35.7129</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>4640749</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>35.7129</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>84999</v>
@@ -7187,10 +7177,10 @@
         <v>118453</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>37.61369999999999</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4455456</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>37.61369999999999</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>84222</v>
@@ -7209,10 +7199,10 @@
         <v>127315</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>37.7442</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>4805403</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>37.7442</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>64764</v>
@@ -7231,10 +7221,10 @@
         <v>128287</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>36.6719</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4704524</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>36.6719</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>64037</v>
@@ -7253,10 +7243,10 @@
         <v>120072</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>37.8198</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4541095</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>37.8198</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>69590</v>
@@ -7275,10 +7265,10 @@
         <v>116510</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>37.1322</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4326273</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>37.1322</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>43393</v>
@@ -7297,10 +7287,10 @@
         <v>113819</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>38.5358</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4386102</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>38.5358</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>35179.71</v>
@@ -7319,10 +7309,10 @@
         <v>116290</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>37.0764</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>4311610</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>37.0764</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>31524</v>
@@ -7341,10 +7331,10 @@
         <v>115340</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>33.40969999999999</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3853480</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>33.40969999999999</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>32708</v>
@@ -7363,10 +7353,10 @@
         <v>116980</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>37.1858</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4350000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>37.1858</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>36491</v>
@@ -7385,10 +7375,10 @@
         <v>119500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>30.5331</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3648700</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>30.5331</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>26157</v>
@@ -7407,10 +7397,10 @@
         <v>110160</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>33.2516</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3663000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>33.2516</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>36340</v>
@@ -7429,10 +7419,10 @@
         <v>118840</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>33.487</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3979600</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>33.487</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>20735</v>
@@ -7451,10 +7441,10 @@
         <v>112730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>33.6202</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3790000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>33.6202</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>25094</v>
@@ -7473,10 +7463,10 @@
         <v>112480</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>34.3723</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3866200</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>34.3723</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>19434</v>
@@ -7495,10 +7485,10 @@
         <v>89900</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>35.70630000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3210000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>35.70630000000001</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>19798</v>
@@ -7517,10 +7507,10 @@
         <v>93600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>35.4701</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3320000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>35.4701</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>19557</v>
@@ -7539,10 +7529,10 @@
         <v>98440</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>34.6648</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3412400</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>34.6648</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>32638</v>
@@ -7561,10 +7551,10 @@
         <v>97030</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>32.9589</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3198000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>32.9589</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>20241</v>
@@ -7583,10 +7573,10 @@
         <v>91020</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>33.8255</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3078800</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>33.8255</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>11690</v>
@@ -7605,10 +7595,10 @@
         <v>85570</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>30.8987</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2644000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>30.8987</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>12418</v>
@@ -7627,10 +7617,10 @@
         <v>89830</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>30.9707</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2782100</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>30.9707</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>19971</v>
@@ -7649,10 +7639,10 @@
         <v>86330</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>33.614</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2901900</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>33.614</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>17318</v>
@@ -7671,10 +7661,10 @@
         <v>83250</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>31.4679</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2619700</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>31.4679</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>11641</v>
@@ -7693,10 +7683,10 @@
         <v>87430</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>32.6581</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2855300</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>32.6581</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>6621</v>
@@ -7715,10 +7705,10 @@
         <v>90584</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>31.3709</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2841700</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>31.3709</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5172</v>
@@ -7737,10 +7727,10 @@
         <v>95706</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>29.999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2871089</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>29.999</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>6875</v>
@@ -7759,10 +7749,10 @@
         <v>99493</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>27.9513</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2780960</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>27.9513</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>5887</v>
@@ -7781,10 +7771,10 @@
         <v>96757</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>28.2565</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2734014</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>28.2565</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2576</v>
@@ -7803,10 +7793,10 @@
         <v>93683</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>29.0055</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2717322</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>29.0055</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1732</v>
@@ -7825,10 +7815,10 @@
         <v>91053</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>27.8629</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2537000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>27.8629</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1378</v>
@@ -7847,10 +7837,10 @@
         <v>92591</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>26.2863</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2433873</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>26.2863</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1014</v>
@@ -7869,10 +7859,10 @@
         <v>92397</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>25.2482</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2332859</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>25.2482</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1499</v>
@@ -7891,10 +7881,10 @@
         <v>91033</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>25.1801</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2292217</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>25.1801</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>844</v>
@@ -7913,10 +7903,10 @@
         <v>89220</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>24.769</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2209890</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>24.769</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>566</v>
@@ -7935,10 +7925,10 @@
         <v>87714</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>24.4946</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2148520</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>24.4946</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2048</v>
@@ -7957,10 +7947,10 @@
         <v>94995</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>22.2223</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2111008</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>22.2223</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1060</v>
@@ -7979,10 +7969,10 @@
         <v>92498</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>22.0052</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2035440</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>22.0052</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>311</v>
@@ -8001,10 +7991,10 @@
         <v>89426</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>22.4563</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2008179</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>22.4563</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8023,10 +8013,10 @@
         <v>89495</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>21.7766</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1948895</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>21.7766</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8044,10 +8034,10 @@
         <v>87799</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>21.4574</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1883941</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>21.4574</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>215</v>
@@ -8065,10 +8055,10 @@
         <v>86982</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1854457</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>21.32</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1123</v>
@@ -8086,10 +8076,10 @@
         <v>86031</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>20.6346</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1775215</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>20.6346</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1086</v>
@@ -8107,10 +8097,10 @@
         <v>86982</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>20.4705</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1780568</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>20.4705</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>884</v>
@@ -8128,10 +8118,10 @@
         <v>80135</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>21.2568</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1703412</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>21.2568</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1373</v>
@@ -8149,10 +8139,10 @@
         <v>88236</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>19.5622</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1726091</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>19.5622</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2191</v>
@@ -8488,7 +8478,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8567,10 +8557,10 @@
         <v>181474</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6.4514</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1170764.35</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6.4514</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>441.24</v>
@@ -8589,10 +8579,10 @@
         <v>181795</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6.4153</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1166270.91</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6.4153</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8609,10 +8599,10 @@
         <v>181628</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6.3914</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1160848.93</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6.3914</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4.5</v>
@@ -8631,10 +8621,10 @@
         <v>180999</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>6.548</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1185173.21</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>6.548</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8651,10 +8641,10 @@
         <v>182759</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6.3077</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1152790.6</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6.3077</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.01</v>
@@ -8673,10 +8663,10 @@
         <v>181124</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6.3193</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1144583</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6.3193</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.3</v>
@@ -8695,10 +8685,10 @@
         <v>179113</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6.3348</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1134650.53</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6.3348</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>10.68</v>
@@ -8717,10 +8707,10 @@
         <v>174690</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6.3495</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1109199.48</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6.3495</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>8.289999999999999</v>
@@ -8739,10 +8729,10 @@
         <v>181630</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6.3452</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1152478.67</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6.3452</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>30.5</v>
@@ -8761,10 +8751,10 @@
         <v>172439</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>6.3508</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1095119.75</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>6.3508</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>49.91</v>
@@ -8783,10 +8773,10 @@
         <v>170000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.3529</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1080000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.3529</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17</v>
@@ -8805,10 +8795,10 @@
         <v>170000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6.3235</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1075000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6.3235</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>13</v>
@@ -8827,10 +8817,10 @@
         <v>164054</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.3852</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1047525.57</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.3852</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>5</v>
@@ -8849,10 +8839,10 @@
         <v>160078</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.3925</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1023292.85</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.3925</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -8871,10 +8861,10 @@
         <v>155837</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>6.4009</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>997489.83</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>6.4009</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>94</v>
@@ -8893,10 +8883,10 @@
         <v>151361</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6.410699999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>970325.63</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6.410699999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>31</v>
@@ -8915,10 +8905,10 @@
         <v>146840</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6.4218</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>942979.67</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6.4218</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>5</v>
@@ -8937,10 +8927,10 @@
         <v>142547</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6.4332</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>917027.66</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6.4332</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8959,10 +8949,10 @@
         <v>132998</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6.4135</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>852975.95</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6.4135</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8981,10 +8971,10 @@
         <v>129464</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6.455100000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>835702.28</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6.455100000000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -9003,10 +8993,10 @@
         <v>126563</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6.472600000000001</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>819184.52</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6.472600000000001</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>23</v>
@@ -9025,10 +9015,10 @@
         <v>123834</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6.4909</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>803791.73</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6.4909</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1</v>
@@ -9047,10 +9037,10 @@
         <v>121337</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.510800000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>790000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6.510800000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -9069,10 +9059,10 @@
         <v>120000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.5417</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>785000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6.5417</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -9091,10 +9081,10 @@
         <v>118000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.6102</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>780000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6.6102</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -9113,10 +9103,10 @@
         <v>117000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6.5812</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>770000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6.5812</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -9135,10 +9125,10 @@
         <v>116985</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6.5583</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>767215.45</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6.5583</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1</v>
@@ -9157,10 +9147,10 @@
         <v>116000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.5948</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>765000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6.5948</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9179,10 +9169,10 @@
         <v>115862</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6.5595</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>760000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6.5595</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9201,10 +9191,10 @@
         <v>115000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.5652</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>755000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.5652</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -9221,10 +9211,10 @@
         <v>113000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6.5044</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>735000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6.5044</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9241,10 +9231,10 @@
         <v>112000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>6.535699999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>732000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>6.535699999999999</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9261,10 +9251,10 @@
         <v>111840</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.5375</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>731158</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6.5375</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9281,10 +9271,10 @@
         <v>111000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.4595</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>717000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.4595</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9301,10 +9291,10 @@
         <v>109000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.4862</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>707000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.4862</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9321,10 +9311,10 @@
         <v>107000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6.4673</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>692000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6.4673</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9341,10 +9331,10 @@
         <v>106000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6.396199999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>678000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6.396199999999999</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9361,10 +9351,10 @@
         <v>105000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6.285699999999999</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>660000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6.285699999999999</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9381,10 +9371,10 @@
         <v>105000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.1905</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.1905</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9401,10 +9391,10 @@
         <v>103000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>618000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -9421,10 +9411,10 @@
         <v>102000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>612000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -9441,10 +9431,10 @@
         <v>100000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -9461,10 +9451,10 @@
         <v>100000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>570000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5.7</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -9481,10 +9471,10 @@
         <v>97000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.670100000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5.670100000000001</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -9501,10 +9491,10 @@
         <v>95000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.6842</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>540000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.6842</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -9521,10 +9511,10 @@
         <v>90000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>495000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5.5</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -9541,10 +9531,10 @@
         <v>88000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>484000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.5</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -9561,10 +9551,10 @@
         <v>84000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5.4762</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>460000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5.4762</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -9581,10 +9571,10 @@
         <v>80000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>415000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5.1875</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -9601,10 +9591,10 @@
         <v>78000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5.1923</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>405000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5.1923</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -9621,10 +9611,10 @@
         <v>75000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>390000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>5.2</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -9641,10 +9631,10 @@
         <v>74000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5.2027</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>385000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5.2027</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -9661,10 +9651,10 @@
         <v>72000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>360000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -9681,10 +9671,10 @@
         <v>71000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>355000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -9701,10 +9691,10 @@
         <v>70000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -9721,10 +9711,10 @@
         <v>67000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4.791</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>321000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4.791</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -9741,10 +9731,10 @@
         <v>65000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>312000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4.8</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -9760,10 +9750,10 @@
         <v>64000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.7656</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>305000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4.7656</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -9779,10 +9769,10 @@
         <v>62000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4.758100000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>295000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4.758100000000001</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -9798,10 +9788,10 @@
         <v>61000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4.590199999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4.590199999999999</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -9817,10 +9807,10 @@
         <v>59000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4.5932</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>271000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4.5932</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -9836,10 +9826,10 @@
         <v>58000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4.569</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>265000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4.569</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -9855,10 +9845,10 @@
         <v>55000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.5455</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4.5455</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -10192,7 +10182,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10271,10 +10261,10 @@
         <v>33230</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>26.0178</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>864570</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>26.0178</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>27507.44</v>
@@ -10293,10 +10283,10 @@
         <v>33540</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>28.8965</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>969190</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>28.8965</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>30204.72</v>
@@ -10315,10 +10305,10 @@
         <v>34280</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>31.0971</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1066010</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>31.0971</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>28321.07</v>
@@ -10337,10 +10327,10 @@
         <v>34300</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>28.2525</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>969060</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>28.2525</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>22787.86</v>
@@ -10359,10 +10349,10 @@
         <v>35360</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>28.558</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1009810</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>28.558</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>23643.32</v>
@@ -10381,10 +10371,10 @@
         <v>33870</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>27.7098</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>938530</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>27.7098</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>22836.31</v>
@@ -10403,10 +10393,10 @@
         <v>34508</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>28.2865</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>976112</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>28.2865</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>24238.22</v>
@@ -10425,10 +10415,10 @@
         <v>35646</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26.0883</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>929944</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26.0883</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>25464.69</v>
@@ -10447,10 +10437,10 @@
         <v>34314</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>27.0262</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>927378</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>27.0262</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>27342.04</v>
@@ -10469,10 +10459,10 @@
         <v>33868</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>26.6606</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>902941</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>26.6606</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>23166.29</v>
@@ -10491,10 +10481,10 @@
         <v>33700</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>26.8338</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>904300</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>26.8338</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17805</v>
@@ -10513,10 +10503,10 @@
         <v>33196</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>26.4166</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>876926</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>26.4166</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>17264</v>
@@ -10535,10 +10525,10 @@
         <v>32620</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>26.6228</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>868436</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>26.6228</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>19764</v>
@@ -10557,10 +10547,10 @@
         <v>34256</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>23.6277</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>809390</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>23.6277</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>22786</v>
@@ -10579,10 +10569,10 @@
         <v>32557</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>26.1998</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>852988</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>26.1998</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>21048</v>
@@ -10601,10 +10591,10 @@
         <v>32860</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>30.5173</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1002800</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>30.5173</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>26034</v>
@@ -10623,10 +10613,10 @@
         <v>34912</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>27.1429</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>947612</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>27.1429</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23521</v>
@@ -10645,10 +10635,10 @@
         <v>37343</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26.4395</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>987331</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26.4395</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>23883</v>
@@ -10667,10 +10657,10 @@
         <v>37718</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>26.3372</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>993387</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>26.3372</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>24989</v>
@@ -10689,10 +10679,10 @@
         <v>36865</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>28.4369</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1048325</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>28.4369</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>19341</v>
@@ -10711,10 +10701,10 @@
         <v>37705</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>27.7088</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1044762</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>27.7088</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>18014</v>
@@ -10733,10 +10723,10 @@
         <v>37133</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>27.9283</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1037062</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>27.9283</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>15556</v>
@@ -10755,10 +10745,10 @@
         <v>36694</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>27.0943</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>994200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>27.0943</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>12580</v>
@@ -10777,10 +10767,10 @@
         <v>36749</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>27.6087</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1014592</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>27.6087</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7830</v>
@@ -10799,10 +10789,10 @@
         <v>37838</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>27.6236</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1045220</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>27.6236</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9198</v>
@@ -10821,10 +10811,10 @@
         <v>36500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>27.9041</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1018500</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>27.9041</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7436</v>
@@ -10843,10 +10833,10 @@
         <v>37394</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>27.6594</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1034296</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>27.6594</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>8700</v>
@@ -10865,10 +10855,10 @@
         <v>33500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>27.5701</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>923600</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>27.5701</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7203</v>
@@ -10887,10 +10877,10 @@
         <v>32600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>27.5613</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>898500</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>27.5613</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8464</v>
@@ -10909,10 +10899,10 @@
         <v>34500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>26.7913</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>924300</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>26.7913</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9949</v>
@@ -10931,10 +10921,10 @@
         <v>33800</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>28.2101</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>953500</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>28.2101</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>10536</v>
@@ -10953,10 +10943,10 @@
         <v>32500</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>29.6369</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>963200</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>29.6369</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>11610</v>
@@ -10975,10 +10965,10 @@
         <v>35400</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>28.4492</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1007100</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>28.4492</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>16269</v>
@@ -10997,10 +10987,10 @@
         <v>35100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>28.0627</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>985000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>28.0627</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>10628</v>
@@ -11019,10 +11009,10 @@
         <v>35400</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>26.9859</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>955300</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>26.9859</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6655</v>
@@ -11041,10 +11031,10 @@
         <v>33300</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>27.2042</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>905900</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>27.2042</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>2654</v>
@@ -11063,10 +11053,10 @@
         <v>26100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>23.9234</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>624400</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>23.9234</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1478</v>
@@ -11085,10 +11075,10 @@
         <v>24900</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>23.6707</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>589400</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>23.6707</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>560</v>
@@ -11107,10 +11097,10 @@
         <v>24435</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>24.3499</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>594991</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>24.3499</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>107</v>
@@ -11129,10 +11119,10 @@
         <v>23650</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>24.2778</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>574170</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>24.2778</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>234</v>
@@ -11151,10 +11141,10 @@
         <v>22800</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>23.1798</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>528500</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>23.1798</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>350</v>
@@ -11173,10 +11163,10 @@
         <v>22400</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>23.4866</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>526100</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>23.4866</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>944</v>
@@ -11195,10 +11185,10 @@
         <v>22800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>23.8684</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>544200</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>23.8684</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>508</v>
@@ -11217,10 +11207,10 @@
         <v>23100</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>23.2727</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>537600</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>23.2727</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>34</v>
@@ -11239,10 +11229,10 @@
         <v>22150</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>23.9729</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>531000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>23.9729</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>18</v>
@@ -11261,10 +11251,10 @@
         <v>21900</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>23.1005</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>505900</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>23.1005</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>36</v>
@@ -11283,10 +11273,10 @@
         <v>20700</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>22.5749</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>467300</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>22.5749</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>113</v>
@@ -11305,10 +11295,10 @@
         <v>20200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>21.396</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>432200</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>21.396</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>155</v>
@@ -11327,10 +11317,10 @@
         <v>20600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>21.6456</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>445900</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>21.6456</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>153</v>
@@ -11349,10 +11339,10 @@
         <v>20400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>21.549</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>439600</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>21.549</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>169</v>
@@ -11371,10 +11361,10 @@
         <v>20200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>21.7723</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>439800</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>21.7723</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>142</v>
@@ -11393,10 +11383,10 @@
         <v>19100</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>21.6911</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>414300</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>21.6911</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>16</v>
@@ -11415,10 +11405,10 @@
         <v>17400</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>20.454</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>355900</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>20.454</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11437,10 +11427,10 @@
         <v>16500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>21</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>346500</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>21</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11459,10 +11449,10 @@
         <v>15600</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>21.3782</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>333500</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>21.3782</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11481,10 +11471,10 @@
         <v>15900</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>21.2893</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>338500</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>21.2893</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11503,10 +11493,10 @@
         <v>16500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>22.2242</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>366700</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>22.2242</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>4</v>
@@ -11524,10 +11514,10 @@
         <v>16500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>21.4788</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>354400</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>21.4788</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1</v>
@@ -11545,10 +11535,10 @@
         <v>16500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>21.6364</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>357000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>21.6364</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11566,10 +11556,10 @@
         <v>16600</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>22.0482</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>366000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>22.0482</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11587,10 +11577,10 @@
         <v>16900</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>22.6036</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>382000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>22.6036</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11608,10 +11598,10 @@
         <v>16000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>22.8125</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>365000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>22.8125</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11629,10 +11619,10 @@
         <v>16300</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>25.8282</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>421000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>25.8282</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11968,7 +11958,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12047,10 +12037,10 @@
         <v>27600</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>23.9228</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>660270</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>23.9228</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>125530.97</v>
@@ -12069,10 +12059,10 @@
         <v>26210</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>24.3487</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>638180</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>24.3487</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>136671.44</v>
@@ -12091,10 +12081,10 @@
         <v>30990</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.7141</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>703910</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.7141</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>115214.33</v>
@@ -12113,10 +12103,10 @@
         <v>32100</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.9118</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>735470</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.9118</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>109607.01</v>
@@ -12135,10 +12125,10 @@
         <v>33690</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.5283</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>758980</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.5283</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>123448.08</v>
@@ -12157,10 +12147,10 @@
         <v>34460</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22.2885</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>768060</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22.2885</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>114146.77</v>
@@ -12179,10 +12169,10 @@
         <v>34069</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>21.5995</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>735873</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>21.5995</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>104535.32</v>
@@ -12201,10 +12191,10 @@
         <v>34343</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>21.4297</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>735966.5</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>21.4297</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>96592.48</v>
@@ -12223,10 +12213,10 @@
         <v>31329</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>19.9983</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>626525.3</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>19.9983</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>97216</v>
@@ -12245,10 +12235,10 @@
         <v>32991</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>21.502</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>709372.8</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>21.502</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>95278.00999999999</v>
@@ -12267,10 +12257,10 @@
         <v>36414</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>20.0527</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>730199.4</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>20.0527</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>94215</v>
@@ -12289,10 +12279,10 @@
         <v>33781</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>20.3877</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>688715.3</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>20.3877</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>85708</v>
@@ -12311,10 +12301,10 @@
         <v>41331</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>19.8203</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>819194</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>19.8203</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>80382</v>
@@ -12333,10 +12323,10 @@
         <v>42854</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>19.6795</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>843344</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>19.6795</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>70027</v>
@@ -12355,10 +12345,10 @@
         <v>43629</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>19.3673</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>844976</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>19.3673</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>77978</v>
@@ -12377,10 +12367,10 @@
         <v>48000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19.0875</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>916200</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19.0875</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>51522</v>
@@ -12399,10 +12389,10 @@
         <v>48000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>19.7792</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>949400</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>19.7792</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>53988</v>
@@ -12421,10 +12411,10 @@
         <v>50000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>19.558</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>977900</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>19.558</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>56114</v>
@@ -12443,10 +12433,10 @@
         <v>50010</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20.2054</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1010470</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20.2054</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>59606</v>
@@ -12465,10 +12455,10 @@
         <v>49591</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>20.0827</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>995920</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>20.0827</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>51041</v>
@@ -12487,10 +12477,10 @@
         <v>49369</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>18.671</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>921770</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>18.671</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>49904</v>
@@ -12509,10 +12499,10 @@
         <v>49383</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>18.5531</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>916208</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>18.5531</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>43225</v>
@@ -12531,10 +12521,10 @@
         <v>50572</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.2945</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>925189</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.2945</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>36857</v>
@@ -12553,10 +12543,10 @@
         <v>51226</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.9129</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>968833</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.9129</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>42766</v>
@@ -12575,10 +12565,10 @@
         <v>51447</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>18.2256</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>937650</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>18.2256</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>32500</v>
@@ -12597,10 +12587,10 @@
         <v>50563</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>19.2899</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>975353</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>19.2899</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>30689</v>
@@ -12619,10 +12609,10 @@
         <v>50445</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>18.2133</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>918768</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>18.2133</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>25631</v>
@@ -12641,10 +12631,10 @@
         <v>48066</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>830100</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.27</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>22123</v>
@@ -12663,10 +12653,10 @@
         <v>49288</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18.3865</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>906235</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18.3865</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>17407</v>
@@ -12685,10 +12675,10 @@
         <v>50535</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>18.8176</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>950949</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>18.8176</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24296</v>
@@ -12707,10 +12697,10 @@
         <v>49966</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>18.8435</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>941533</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>18.8435</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>22387</v>
@@ -12729,10 +12719,10 @@
         <v>49048</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18.4102</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>902985</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18.4102</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>23874</v>
@@ -12751,10 +12741,10 @@
         <v>48749</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>18.8263</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>917762</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>18.8263</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>22678</v>
@@ -12773,10 +12763,10 @@
         <v>48725</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>18.689</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>910621</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>18.689</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>14026</v>
@@ -12795,10 +12785,10 @@
         <v>49791</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>18.1718</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>904790</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>18.1718</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>13951</v>
@@ -12817,10 +12807,10 @@
         <v>48879</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>18.2328</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>891200</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>18.2328</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>11893</v>
@@ -12839,10 +12829,10 @@
         <v>47700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>17.9688</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>857110</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>17.9688</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>12548</v>
@@ -12861,10 +12851,10 @@
         <v>47159</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>17.6255</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>831200</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>17.6255</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>7790</v>
@@ -12883,10 +12873,10 @@
         <v>46196</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16.8865</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>780090</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>16.8865</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>11282</v>
@@ -12905,10 +12895,10 @@
         <v>46526</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>17.4373</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>811290</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>17.4373</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>6807</v>
@@ -12927,10 +12917,10 @@
         <v>45412</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>17.7695</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>806950</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>17.7695</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>6862</v>
@@ -12949,10 +12939,10 @@
         <v>45889</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>17.7748</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>815670</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>17.7748</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>7686</v>
@@ -12971,10 +12961,10 @@
         <v>46277</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>17.884</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>827620</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>17.884</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>19243</v>
@@ -12993,10 +12983,10 @@
         <v>46106</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>17.7417</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>818000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>17.7417</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>8179</v>
@@ -13015,10 +13005,10 @@
         <v>46525</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>17.7152</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>824200</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>17.7152</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>9355</v>
@@ -13037,10 +13027,10 @@
         <v>45658</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>17.6341</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>805140</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>17.6341</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2658</v>
@@ -13059,10 +13049,10 @@
         <v>44149</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>17.7209</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>782360</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>17.7209</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2223</v>
@@ -13081,10 +13071,10 @@
         <v>43947</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>18.7863</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>825600</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>18.7863</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3297</v>
@@ -13103,10 +13093,10 @@
         <v>44465</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.4379</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>819840</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18.4379</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3781</v>
@@ -13125,10 +13115,10 @@
         <v>44039</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>18.3451</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>807900</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>18.3451</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>4711</v>
@@ -13147,10 +13137,10 @@
         <v>43231</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>18.2138</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>787400</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>18.2138</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>4803</v>
@@ -13169,10 +13159,10 @@
         <v>43512</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>18.0456</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>785200</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>18.0456</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>3960</v>
@@ -13191,10 +13181,10 @@
         <v>43172</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>17.5669</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>758400</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>17.5669</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3895</v>
@@ -13213,10 +13203,10 @@
         <v>44525</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>17.3812</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>773900</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>17.3812</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3970</v>
@@ -13235,10 +13225,10 @@
         <v>43939</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>17.474</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>767790</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>17.474</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>3243</v>
@@ -13257,10 +13247,10 @@
         <v>44888</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>15.6612</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>703000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>15.6612</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3286</v>
@@ -13279,10 +13269,10 @@
         <v>43935</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>16.8044</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>738300</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>16.8044</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3851</v>
@@ -13300,10 +13290,10 @@
         <v>44506</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>17.1415</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>762900</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>17.1415</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>2426</v>
@@ -13321,10 +13311,10 @@
         <v>43568</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>17.2191</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>750200</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>17.2191</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1905</v>
@@ -13342,10 +13332,10 @@
         <v>42590</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>17.6332</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>751000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>17.6332</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1839</v>
@@ -13363,10 +13353,10 @@
         <v>43000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>16.8791</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>725800</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>16.8791</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1766</v>
@@ -13384,10 +13374,10 @@
         <v>37800</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>17.4788</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>660700</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>17.4788</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1539</v>
@@ -13405,10 +13395,10 @@
         <v>34900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>17.4298</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>608300</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>17.4298</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>977</v>

--- a/Resultados/Mercado mundial - Lechuga y achicoria.xlsx
+++ b/Resultados/Mercado mundial - Lechuga y achicoria.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estados Unidos de América" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Italia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="United States of America" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="India" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Spain" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Italy" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Estados Unidos de América'!$B$12:$B$74</f>
+              <f>'United States of America'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Estados Unidos de América'!$C$12:$C$74</f>
+              <f>'United States of America'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +925,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'España'!$B$12:$B$74</f>
+              <f>'Spain'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'España'!$C$12:$C$74</f>
+              <f>'Spain'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Italia'!$B$12:$B$74</f>
+              <f>'Italy'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Italia'!$C$12:$C$74</f>
+              <f>'Italy'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>1261377</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>28084971.27</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.2653</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>28084971.27</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2380460.83</v>
@@ -2160,10 +2161,10 @@
         <v>1266830</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>28128996.97</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.2042</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>28128996.97</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2388357.64</v>
@@ -2182,10 +2183,10 @@
         <v>1268993</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>28443524.01</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.4143</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>28443524.01</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2439727.81</v>
@@ -2204,10 +2205,10 @@
         <v>1234742</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>27586474.33</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.3419</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>27586474.33</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2266474.34</v>
@@ -2226,10 +2227,10 @@
         <v>1234919</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>27247341.83</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.0641</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>27247341.83</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2309618.11</v>
@@ -2248,10 +2249,10 @@
         <v>1237573</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>27135983.56</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.9268</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>27135983.56</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2223093.32</v>
@@ -2270,10 +2271,10 @@
         <v>1229594</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>26758399.34</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.762</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>26758399.34</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2187299.27</v>
@@ -2292,10 +2293,10 @@
         <v>1203920</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>26355618.4</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>21.8915</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>26355618.4</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2137430.56</v>
@@ -2314,10 +2315,10 @@
         <v>1221833</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>26364669.64</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>21.578</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>26364669.64</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2115195.53</v>
@@ -2336,10 +2337,10 @@
         <v>1171510</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>25187287.21</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.4999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>25187287.21</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2034017.91</v>
@@ -2358,10 +2359,10 @@
         <v>1144243</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>24627077.08</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>21.5226</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>24627077.08</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2025850</v>
@@ -2380,10 +2381,10 @@
         <v>1160754</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>25737639.91</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22.1732</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>25737639.91</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1929675</v>
@@ -2402,10 +2403,10 @@
         <v>1149496</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25107005.27</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>21.8418</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25107005.27</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1881283</v>
@@ -2424,10 +2425,10 @@
         <v>1144736</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>24659784.7</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21.5419</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>24659784.7</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1792171</v>
@@ -2446,10 +2447,10 @@
         <v>1117231</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>24174760.18</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>21.6381</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>24174760.18</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1670793</v>
@@ -2468,10 +2469,10 @@
         <v>1105834</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23825016.98</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>21.5448</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23825016.98</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1680594</v>
@@ -2490,10 +2491,10 @@
         <v>1102142</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>23745208.82</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21.5446</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>23745208.82</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1671003</v>
@@ -2512,10 +2513,10 @@
         <v>1101779</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>23616649.94</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>21.435</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>23616649.94</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1680345</v>
@@ -2534,10 +2535,10 @@
         <v>1039804</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22585945.11</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>21.7213</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22585945.11</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1570564</v>
@@ -2556,10 +2557,10 @@
         <v>1055197</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>22533173.2</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.3545</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>22533173.2</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1544251</v>
@@ -2578,10 +2579,10 @@
         <v>962408</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21467326.77</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.3058</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21467326.77</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1523532</v>
@@ -2600,10 +2601,10 @@
         <v>926295</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>20281335.08</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>21.8951</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>20281335.08</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1505554</v>
@@ -2622,10 +2623,10 @@
         <v>879499</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18837442.47</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.4184</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18837442.47</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1356304</v>
@@ -2644,10 +2645,10 @@
         <v>855539</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18398133.31</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.5047</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18398133.31</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1295885.02</v>
@@ -2666,10 +2667,10 @@
         <v>816595</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17191619.25</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>21.0528</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17191619.25</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1214233.22</v>
@@ -2688,10 +2689,10 @@
         <v>778897</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>16149101.74</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20.7333</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>16149101.74</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1188517.99</v>
@@ -2710,10 +2711,10 @@
         <v>752924</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16403499.12</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>21.7864</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16403499.12</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1124414.78</v>
@@ -2732,10 +2733,10 @@
         <v>719802</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>15335316.6</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>21.3049</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>15335316.6</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1063094</v>
@@ -2754,10 +2755,10 @@
         <v>666867</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>14328983.91</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>21.487</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>14328983.91</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>998685</v>
@@ -2776,10 +2777,10 @@
         <v>664328</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>14261119.67</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21.467</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>14261119.67</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1018223</v>
@@ -2798,10 +2799,10 @@
         <v>620264</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13252335.96</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>21.3656</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13252335.96</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1066435</v>
@@ -2820,10 +2821,10 @@
         <v>577524</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12700620.47</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>21.9915</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>12700620.47</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>975201</v>
@@ -2842,10 +2843,10 @@
         <v>566663</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11939883.36</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>21.0705</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11939883.36</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>911169</v>
@@ -2864,10 +2865,10 @@
         <v>547860</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>11572518</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>21.1231</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>11572518</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>816834</v>
@@ -2886,10 +2887,10 @@
         <v>539802</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>11255251</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>20.8507</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>11255251</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>789395</v>
@@ -2908,10 +2909,10 @@
         <v>525661</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10800439</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>20.5464</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10800439</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>725370</v>
@@ -2930,10 +2931,10 @@
         <v>500523</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10198636</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>20.376</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10198636</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>718668</v>
@@ -2952,10 +2953,10 @@
         <v>485692</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9485422</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>19.5297</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9485422</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>667899</v>
@@ -2974,10 +2975,10 @@
         <v>485770</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9434817</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>19.4224</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9434817</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>600646</v>
@@ -2996,10 +2997,10 @@
         <v>478449</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9377984</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>19.6008</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9377984</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>586736</v>
@@ -3018,10 +3019,10 @@
         <v>463832</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8774740</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>18.9179</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8774740</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>531745</v>
@@ -3040,10 +3041,10 @@
         <v>461382</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8998123</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>19.5025</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8998123</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>536068</v>
@@ -3062,10 +3063,10 @@
         <v>455694</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8757080</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>19.217</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8757080</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>518287</v>
@@ -3084,10 +3085,10 @@
         <v>451545</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8449156</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>18.7117</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8449156</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>528413</v>
@@ -3106,10 +3107,10 @@
         <v>453007</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8325414</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>18.3781</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8325414</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>504411</v>
@@ -3128,10 +3129,10 @@
         <v>446415</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8103886</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18.1533</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8103886</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>472975</v>
@@ -3150,10 +3151,10 @@
         <v>430782</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7942862</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>18.4382</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7942862</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>458472</v>
@@ -3172,10 +3173,10 @@
         <v>417299</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7570875</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18.1426</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7570875</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>458126</v>
@@ -3194,10 +3195,10 @@
         <v>414659</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7467882</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.0097</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7467882</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>473207</v>
@@ -3216,10 +3217,10 @@
         <v>409343</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7333632</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17.9156</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7333632</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>428129</v>
@@ -3238,10 +3239,10 @@
         <v>401904</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7203833</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>17.9243</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7203833</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>434143</v>
@@ -3260,10 +3261,10 @@
         <v>394078</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6885464</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>17.4723</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6885464</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>413635</v>
@@ -3282,10 +3283,10 @@
         <v>387697</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6796536</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>17.5305</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6796536</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>406875</v>
@@ -3304,10 +3305,10 @@
         <v>387085</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>6563049</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16.9551</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>6563049</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>407957</v>
@@ -3326,10 +3327,10 @@
         <v>403085</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6783629</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>16.8293</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6783629</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>393752</v>
@@ -3348,10 +3349,10 @@
         <v>394140</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6442808</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>16.3465</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6442808</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>364701</v>
@@ -3370,10 +3371,10 @@
         <v>393614</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>6420428</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>16.3115</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>6420428</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>367473</v>
@@ -3391,10 +3392,10 @@
         <v>389702</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>6233613</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>15.9958</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>6233613</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>329556</v>
@@ -3412,10 +3413,10 @@
         <v>385342</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6198555</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>16.0859</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6198555</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>338297</v>
@@ -3433,10 +3434,10 @@
         <v>381664</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6061059</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>15.8806</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6061059</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>320970</v>
@@ -3454,10 +3455,10 @@
         <v>390213</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6128853</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>15.7064</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6128853</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>284805</v>
@@ -3475,10 +3476,10 @@
         <v>389137</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6086019</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>15.6398</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6086019</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>253145</v>
@@ -3496,10 +3497,10 @@
         <v>434747</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6616339</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>15.2188</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6616339</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>252325</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4258,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4314,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4328,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4676,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>789681.7500000002</v>
+        <v>46792.38</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3317348221184552</v>
+        <v>0.01965685778580948</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>742889.3700000003</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3120779643326458</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>2380460.83</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>633666</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>14904686.08</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>23.5213</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>14904686.08</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -5031,10 +5041,10 @@
         <v>629752</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>14842674.95</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>23.5691</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>14842674.95</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -5051,10 +5061,10 @@
         <v>625773</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>15002019.07</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>23.9736</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>15002019.07</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -5071,10 +5081,10 @@
         <v>625031</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14869364.22</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>23.7898</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14869364.22</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.18</v>
@@ -5093,10 +5103,10 @@
         <v>619440</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14656641.55</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.6611</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14656641.55</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>120</v>
@@ -5115,10 +5125,10 @@
         <v>610551</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>14470120.26</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>23.7001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>14470120.26</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3.26</v>
@@ -5137,10 +5147,10 @@
         <v>607798</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>14351893.39</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.6129</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>14351893.39</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3.87</v>
@@ -5159,10 +5169,10 @@
         <v>596375</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>14085845.74</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>23.6191</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>14085845.74</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>62.54</v>
@@ -5181,10 +5191,10 @@
         <v>627488</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>14876263.14</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>23.7077</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>14876263.14</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>24.89</v>
@@ -5203,10 +5213,10 @@
         <v>591637</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13881274.08</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>23.4625</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13881274.08</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>386.05</v>
@@ -5225,10 +5235,10 @@
         <v>570000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>23.6842</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>13500000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5247,10 +5257,10 @@
         <v>575000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>24.3478</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>14000000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5269,10 +5279,10 @@
         <v>570000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>13430000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>23.5614</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>13430000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5291,10 +5301,10 @@
         <v>563000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>23.0906</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>13000000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5313,10 +5323,10 @@
         <v>550000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>12850000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>23.3636</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>12850000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -5335,10 +5345,10 @@
         <v>545000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>22.9358</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>12500000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1</v>
@@ -5357,10 +5367,10 @@
         <v>535000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>22.4299</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>12000000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1</v>
@@ -5379,10 +5389,10 @@
         <v>525000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>11600000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>22.0952</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>11600000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5401,10 +5411,10 @@
         <v>495627</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.1941</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>11000000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -5423,10 +5433,10 @@
         <v>500000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>10500000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4</v>
@@ -5445,10 +5455,10 @@
         <v>420000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>23.8095</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>10000000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4</v>
@@ -5467,10 +5477,10 @@
         <v>400000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>22.5</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>9000000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>8</v>
@@ -5489,10 +5499,10 @@
         <v>350000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7600000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.7143</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7600000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>11</v>
@@ -5511,10 +5521,10 @@
         <v>330000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7250000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.9697</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7250000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>18.08</v>
@@ -5533,10 +5543,10 @@
         <v>290000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.6897</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6000000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>85</v>
@@ -5555,10 +5565,10 @@
         <v>260000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5650000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21.7308</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5650000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>81</v>
@@ -5577,10 +5587,10 @@
         <v>244000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>22.541</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5500000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>331</v>
@@ -5599,10 +5609,10 @@
         <v>210000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>25.7143</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>5400000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>696</v>
@@ -5621,10 +5631,10 @@
         <v>180000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>25</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>4500000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1086</v>
@@ -5643,10 +5653,10 @@
         <v>170000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>24.7059</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4200000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>825</v>
@@ -5665,10 +5675,10 @@
         <v>140000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>25</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3500000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1151</v>
@@ -5687,10 +5697,10 @@
         <v>100000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>28</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2800000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>299</v>
@@ -5709,10 +5719,10 @@
         <v>115000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>24</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2760000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5731,10 +5741,10 @@
         <v>105000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2508000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>23.8857</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2508000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5753,10 +5763,10 @@
         <v>100000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2280000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>22.8</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2280000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5775,10 +5785,10 @@
         <v>95000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2180000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>22.9474</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2180000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5797,10 +5807,10 @@
         <v>90000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>23.3333</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5819,10 +5829,10 @@
         <v>90000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>22.2222</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5841,10 +5851,10 @@
         <v>90000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>21.6667</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1950000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5863,10 +5873,10 @@
         <v>85000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>21.7647</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1850000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5885,10 +5895,10 @@
         <v>80000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>21.25</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5907,10 +5917,10 @@
         <v>75000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>21.3333</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5929,10 +5939,10 @@
         <v>70000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1510000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>21.5714</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1510000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5951,10 +5961,10 @@
         <v>65000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1315000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>20.2308</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1315000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5973,10 +5983,10 @@
         <v>65000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1360000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>20.9231</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1360000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5995,10 +6005,10 @@
         <v>68000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>19.5588</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1330000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6017,10 +6027,10 @@
         <v>60000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>21.8333</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1310000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6039,10 +6049,10 @@
         <v>60000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>21.8333</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1310000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6061,10 +6071,10 @@
         <v>60000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>21.8333</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1310000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6083,10 +6093,10 @@
         <v>60000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1315000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>21.9167</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1315000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6105,10 +6115,10 @@
         <v>60000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1305000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>21.75</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1305000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6127,10 +6137,10 @@
         <v>55000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>20.7273</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1140000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6149,10 +6159,10 @@
         <v>55000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>21.8182</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1200000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6171,10 +6181,10 @@
         <v>50000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>21.6</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1080000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6193,10 +6203,10 @@
         <v>70000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>20.7143</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1450000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6215,10 +6225,10 @@
         <v>70000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>19.1429</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1340000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6237,10 +6247,10 @@
         <v>75000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>18</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1350000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6258,10 +6268,10 @@
         <v>75000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1340000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>17.8667</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1340000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6279,10 +6289,10 @@
         <v>80000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6300,10 +6310,10 @@
         <v>80000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>16.625</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1330000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6321,10 +6331,10 @@
         <v>90000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1490000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>16.5556</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1490000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6342,10 +6352,10 @@
         <v>105000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>15.9048</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1670000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6363,10 +6373,10 @@
         <v>150000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2220000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>14.8</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2220000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6702,7 +6712,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6781,10 +6791,10 @@
         <v>134358</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4712305</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>35.0728</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4712305</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>389284.94</v>
@@ -6803,10 +6813,10 @@
         <v>137312</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4450627</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>32.4125</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4450627</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>511522.91</v>
@@ -6825,10 +6835,10 @@
         <v>139213</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4470653</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>32.1138</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4470653</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>426694.09</v>
@@ -6847,10 +6857,10 @@
         <v>105665</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3827618</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>36.2241</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3827618</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>375961.13</v>
@@ -6869,10 +6879,10 @@
         <v>105700</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3714083</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.138</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3714083</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>363707.33</v>
@@ -6891,10 +6901,10 @@
         <v>115580</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3652420</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>31.6008</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3652420</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>285273.92</v>
@@ -6913,10 +6923,10 @@
         <v>131640</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4507730</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>34.2429</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4507730</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>276319.94</v>
@@ -6935,10 +6945,10 @@
         <v>128161</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4682031</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>36.5324</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4682031</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>222750.73</v>
@@ -6957,10 +6967,10 @@
         <v>105660</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3795480</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>35.9216</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3795480</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>228926.44</v>
@@ -6979,10 +6989,10 @@
         <v>107240</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3791140</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>35.3519</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3791140</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>208103.65</v>
@@ -7001,10 +7011,10 @@
         <v>111330</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3829210</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>34.3951</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3829210</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>189554</v>
@@ -7023,10 +7033,10 @@
         <v>114530</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4175610</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>36.4587</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4175610</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>161888</v>
@@ -7045,10 +7055,10 @@
         <v>105137</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4070815</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>38.7191</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4070815</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>174969</v>
@@ -7067,10 +7077,10 @@
         <v>106230</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4105580</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>38.648</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4105580</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>152092</v>
@@ -7089,10 +7099,10 @@
         <v>105300</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3827390</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>36.3475</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3827390</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>136887</v>
@@ -7111,10 +7121,10 @@
         <v>112670</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4014590</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>35.6314</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4014590</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>123611</v>
@@ -7133,10 +7143,10 @@
         <v>120921</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>4360066</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>36.0571</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>4360066</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>111399</v>
@@ -7155,10 +7165,10 @@
         <v>129946</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>4640749</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>35.7129</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>4640749</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>84999</v>
@@ -7177,10 +7187,10 @@
         <v>118453</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4455456</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>37.61369999999999</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>4455456</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>84222</v>
@@ -7199,10 +7209,10 @@
         <v>127315</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>4805403</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>37.7442</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>4805403</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>64764</v>
@@ -7221,10 +7231,10 @@
         <v>128287</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4704524</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>36.6719</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4704524</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>64037</v>
@@ -7243,10 +7253,10 @@
         <v>120072</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4541095</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>37.8198</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4541095</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>69590</v>
@@ -7265,10 +7275,10 @@
         <v>116510</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4326273</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>37.1322</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4326273</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>43393</v>
@@ -7287,10 +7297,10 @@
         <v>113819</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4386102</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>38.5358</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4386102</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>35179.71</v>
@@ -7309,10 +7319,10 @@
         <v>116290</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>4311610</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>37.0764</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>4311610</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>31524</v>
@@ -7331,10 +7341,10 @@
         <v>115340</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3853480</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>33.40969999999999</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3853480</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>32708</v>
@@ -7353,10 +7363,10 @@
         <v>116980</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4350000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>37.1858</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4350000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>36491</v>
@@ -7375,10 +7385,10 @@
         <v>119500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3648700</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>30.5331</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3648700</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>26157</v>
@@ -7397,10 +7407,10 @@
         <v>110160</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3663000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>33.2516</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3663000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>36340</v>
@@ -7419,10 +7429,10 @@
         <v>118840</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3979600</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>33.487</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3979600</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>20735</v>
@@ -7441,10 +7451,10 @@
         <v>112730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3790000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>33.6202</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3790000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>25094</v>
@@ -7463,10 +7473,10 @@
         <v>112480</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3866200</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>34.3723</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3866200</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>19434</v>
@@ -7485,10 +7495,10 @@
         <v>89900</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3210000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>35.70630000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3210000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>19798</v>
@@ -7507,10 +7517,10 @@
         <v>93600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3320000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>35.4701</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3320000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>19557</v>
@@ -7529,10 +7539,10 @@
         <v>98440</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3412400</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>34.6648</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3412400</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>32638</v>
@@ -7551,10 +7561,10 @@
         <v>97030</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3198000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>32.9589</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3198000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>20241</v>
@@ -7573,10 +7583,10 @@
         <v>91020</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3078800</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>33.8255</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3078800</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>11690</v>
@@ -7595,10 +7605,10 @@
         <v>85570</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2644000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>30.8987</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2644000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>12418</v>
@@ -7617,10 +7627,10 @@
         <v>89830</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2782100</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>30.9707</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2782100</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>19971</v>
@@ -7639,10 +7649,10 @@
         <v>86330</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2901900</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>33.614</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2901900</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>17318</v>
@@ -7661,10 +7671,10 @@
         <v>83250</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2619700</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>31.4679</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2619700</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>11641</v>
@@ -7683,10 +7693,10 @@
         <v>87430</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2855300</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>32.6581</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2855300</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>6621</v>
@@ -7705,10 +7715,10 @@
         <v>90584</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2841700</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>31.3709</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2841700</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5172</v>
@@ -7727,10 +7737,10 @@
         <v>95706</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2871089</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>29.999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2871089</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>6875</v>
@@ -7749,10 +7759,10 @@
         <v>99493</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2780960</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>27.9513</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2780960</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>5887</v>
@@ -7771,10 +7781,10 @@
         <v>96757</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2734014</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>28.2565</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2734014</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2576</v>
@@ -7793,10 +7803,10 @@
         <v>93683</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2717322</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>29.0055</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2717322</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1732</v>
@@ -7815,10 +7825,10 @@
         <v>91053</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2537000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>27.8629</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2537000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1378</v>
@@ -7837,10 +7847,10 @@
         <v>92591</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2433873</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>26.2863</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2433873</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1014</v>
@@ -7859,10 +7869,10 @@
         <v>92397</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2332859</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>25.2482</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2332859</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1499</v>
@@ -7881,10 +7891,10 @@
         <v>91033</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2292217</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>25.1801</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2292217</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>844</v>
@@ -7903,10 +7913,10 @@
         <v>89220</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2209890</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>24.769</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2209890</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>566</v>
@@ -7925,10 +7935,10 @@
         <v>87714</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2148520</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>24.4946</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2148520</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2048</v>
@@ -7947,10 +7957,10 @@
         <v>94995</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2111008</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>22.2223</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2111008</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1060</v>
@@ -7969,10 +7979,10 @@
         <v>92498</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2035440</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>22.0052</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2035440</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>311</v>
@@ -7991,10 +8001,10 @@
         <v>89426</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2008179</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>22.4563</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2008179</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8013,10 +8023,10 @@
         <v>89495</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1948895</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>21.7766</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1948895</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8034,10 +8044,10 @@
         <v>87799</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1883941</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>21.4574</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1883941</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>215</v>
@@ -8055,10 +8065,10 @@
         <v>86982</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1854457</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>21.32</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1854457</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1123</v>
@@ -8076,10 +8086,10 @@
         <v>86031</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1775215</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>20.6346</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1775215</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1086</v>
@@ -8097,10 +8107,10 @@
         <v>86982</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1780568</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>20.4705</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1780568</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>884</v>
@@ -8118,10 +8128,10 @@
         <v>80135</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1703412</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>21.2568</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1703412</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1373</v>
@@ -8139,10 +8149,10 @@
         <v>88236</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1726091</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>19.5622</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1726091</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>2191</v>
@@ -8478,7 +8488,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8557,10 +8567,10 @@
         <v>181474</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1170764.35</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6.4514</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1170764.35</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>441.24</v>
@@ -8579,10 +8589,10 @@
         <v>181795</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1166270.91</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6.4153</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1166270.91</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8599,10 +8609,10 @@
         <v>181628</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1160848.93</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6.3914</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1160848.93</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4.5</v>
@@ -8621,10 +8631,10 @@
         <v>180999</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1185173.21</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>6.548</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1185173.21</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -8641,10 +8651,10 @@
         <v>182759</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1152790.6</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6.3077</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1152790.6</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.01</v>
@@ -8663,10 +8673,10 @@
         <v>181124</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1144583</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6.3193</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1144583</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4.3</v>
@@ -8685,10 +8695,10 @@
         <v>179113</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1134650.53</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6.3348</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1134650.53</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>10.68</v>
@@ -8707,10 +8717,10 @@
         <v>174690</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1109199.48</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6.3495</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1109199.48</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>8.289999999999999</v>
@@ -8729,10 +8739,10 @@
         <v>181630</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1152478.67</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6.3452</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1152478.67</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>30.5</v>
@@ -8751,10 +8761,10 @@
         <v>172439</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1095119.75</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>6.3508</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1095119.75</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>49.91</v>
@@ -8773,10 +8783,10 @@
         <v>170000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.3529</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1080000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17</v>
@@ -8795,10 +8805,10 @@
         <v>170000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1075000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6.3235</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1075000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>13</v>
@@ -8817,10 +8827,10 @@
         <v>164054</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1047525.57</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.3852</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1047525.57</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>5</v>
@@ -8839,10 +8849,10 @@
         <v>160078</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1023292.85</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.3925</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1023292.85</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -8861,10 +8871,10 @@
         <v>155837</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>997489.83</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>6.4009</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>997489.83</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>94</v>
@@ -8883,10 +8893,10 @@
         <v>151361</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>970325.63</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6.410699999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>970325.63</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>31</v>
@@ -8905,10 +8915,10 @@
         <v>146840</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>942979.67</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6.4218</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>942979.67</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>5</v>
@@ -8927,10 +8937,10 @@
         <v>142547</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>917027.66</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6.4332</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>917027.66</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8949,10 +8959,10 @@
         <v>132998</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>852975.95</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6.4135</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>852975.95</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8971,10 +8981,10 @@
         <v>129464</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>835702.28</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6.455100000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>835702.28</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8993,10 +9003,10 @@
         <v>126563</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>819184.52</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6.472600000000001</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>819184.52</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>23</v>
@@ -9015,10 +9025,10 @@
         <v>123834</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>803791.73</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6.4909</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>803791.73</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1</v>
@@ -9037,10 +9047,10 @@
         <v>121337</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>790000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.510800000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>790000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -9059,10 +9069,10 @@
         <v>120000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>785000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.5417</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>785000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -9081,10 +9091,10 @@
         <v>118000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>780000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.6102</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>780000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -9103,10 +9113,10 @@
         <v>117000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>770000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6.5812</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>770000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -9125,10 +9135,10 @@
         <v>116985</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>767215.45</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6.5583</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>767215.45</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1</v>
@@ -9147,10 +9157,10 @@
         <v>116000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>765000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.5948</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>765000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9169,10 +9179,10 @@
         <v>115862</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>760000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6.5595</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>760000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9191,10 +9201,10 @@
         <v>115000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>755000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.5652</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>755000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -9211,10 +9221,10 @@
         <v>113000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>735000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6.5044</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>735000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -9231,10 +9241,10 @@
         <v>112000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>732000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>6.535699999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>732000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -9251,10 +9261,10 @@
         <v>111840</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>731158</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.5375</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>731158</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -9271,10 +9281,10 @@
         <v>111000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>717000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.4595</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>717000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -9291,10 +9301,10 @@
         <v>109000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>707000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.4862</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>707000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -9311,10 +9321,10 @@
         <v>107000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>692000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6.4673</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>692000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -9331,10 +9341,10 @@
         <v>106000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>678000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6.396199999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>678000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -9351,10 +9361,10 @@
         <v>105000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>660000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6.285699999999999</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>660000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -9371,10 +9381,10 @@
         <v>105000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.1905</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -9391,10 +9401,10 @@
         <v>103000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>618000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>618000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -9411,10 +9421,10 @@
         <v>102000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>612000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>612000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -9431,10 +9441,10 @@
         <v>100000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -9451,10 +9461,10 @@
         <v>100000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>570000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5.7</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>570000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -9471,10 +9481,10 @@
         <v>97000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.670100000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -9491,10 +9501,10 @@
         <v>95000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.6842</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>540000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -9511,10 +9521,10 @@
         <v>90000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>495000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.5</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>495000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -9531,10 +9541,10 @@
         <v>88000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>484000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.5</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>484000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -9551,10 +9561,10 @@
         <v>84000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>460000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5.4762</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>460000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -9571,10 +9581,10 @@
         <v>80000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>415000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5.1875</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>415000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -9591,10 +9601,10 @@
         <v>78000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>405000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5.1923</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>405000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -9611,10 +9621,10 @@
         <v>75000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>390000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5.2</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>390000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -9631,10 +9641,10 @@
         <v>74000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>385000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5.2027</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>385000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -9651,10 +9661,10 @@
         <v>72000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>360000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -9671,10 +9681,10 @@
         <v>71000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>355000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>355000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -9691,10 +9701,10 @@
         <v>70000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -9711,10 +9721,10 @@
         <v>67000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>321000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4.791</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>321000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -9731,10 +9741,10 @@
         <v>65000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>312000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.8</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>312000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -9750,10 +9760,10 @@
         <v>64000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>305000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.7656</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>305000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -9769,10 +9779,10 @@
         <v>62000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>295000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4.758100000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>295000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -9788,10 +9798,10 @@
         <v>61000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4.590199999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -9807,10 +9817,10 @@
         <v>59000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>271000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4.5932</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>271000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -9826,10 +9836,10 @@
         <v>58000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>265000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4.569</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>265000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -9845,10 +9855,10 @@
         <v>55000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.5455</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -10182,7 +10192,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10261,10 +10271,10 @@
         <v>33230</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>864570</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>26.0178</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>864570</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>27507.44</v>
@@ -10283,10 +10293,10 @@
         <v>33540</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>969190</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>28.8965</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>969190</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>30204.72</v>
@@ -10305,10 +10315,10 @@
         <v>34280</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1066010</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>31.0971</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1066010</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>28321.07</v>
@@ -10327,10 +10337,10 @@
         <v>34300</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>969060</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>28.2525</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>969060</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>22787.86</v>
@@ -10349,10 +10359,10 @@
         <v>35360</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1009810</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>28.558</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1009810</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>23643.32</v>
@@ -10371,10 +10381,10 @@
         <v>33870</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>938530</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>27.7098</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>938530</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>22836.31</v>
@@ -10393,10 +10403,10 @@
         <v>34508</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>976112</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>28.2865</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>976112</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>24238.22</v>
@@ -10415,10 +10425,10 @@
         <v>35646</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>929944</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>26.0883</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>929944</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>25464.69</v>
@@ -10437,10 +10447,10 @@
         <v>34314</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>927378</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>27.0262</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>927378</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>27342.04</v>
@@ -10459,10 +10469,10 @@
         <v>33868</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>902941</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>26.6606</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>902941</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>23166.29</v>
@@ -10481,10 +10491,10 @@
         <v>33700</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>904300</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>26.8338</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>904300</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17805</v>
@@ -10503,10 +10513,10 @@
         <v>33196</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>876926</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>26.4166</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>876926</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>17264</v>
@@ -10525,10 +10535,10 @@
         <v>32620</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>868436</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>26.6228</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>868436</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>19764</v>
@@ -10547,10 +10557,10 @@
         <v>34256</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>809390</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>23.6277</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>809390</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>22786</v>
@@ -10569,10 +10579,10 @@
         <v>32557</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>852988</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>26.1998</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>852988</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>21048</v>
@@ -10591,10 +10601,10 @@
         <v>32860</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1002800</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>30.5173</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1002800</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>26034</v>
@@ -10613,10 +10623,10 @@
         <v>34912</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>947612</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>27.1429</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>947612</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>23521</v>
@@ -10635,10 +10645,10 @@
         <v>37343</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>987331</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26.4395</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>987331</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>23883</v>
@@ -10657,10 +10667,10 @@
         <v>37718</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>993387</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>26.3372</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>993387</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>24989</v>
@@ -10679,10 +10689,10 @@
         <v>36865</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1048325</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>28.4369</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1048325</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>19341</v>
@@ -10701,10 +10711,10 @@
         <v>37705</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1044762</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>27.7088</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1044762</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>18014</v>
@@ -10723,10 +10733,10 @@
         <v>37133</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1037062</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>27.9283</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1037062</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>15556</v>
@@ -10745,10 +10755,10 @@
         <v>36694</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>994200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>27.0943</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>994200</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>12580</v>
@@ -10767,10 +10777,10 @@
         <v>36749</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1014592</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>27.6087</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1014592</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7830</v>
@@ -10789,10 +10799,10 @@
         <v>37838</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1045220</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>27.6236</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1045220</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9198</v>
@@ -10811,10 +10821,10 @@
         <v>36500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1018500</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>27.9041</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1018500</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>7436</v>
@@ -10833,10 +10843,10 @@
         <v>37394</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1034296</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>27.6594</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1034296</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>8700</v>
@@ -10855,10 +10865,10 @@
         <v>33500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>923600</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>27.5701</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>923600</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>7203</v>
@@ -10877,10 +10887,10 @@
         <v>32600</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>898500</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>27.5613</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>898500</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8464</v>
@@ -10899,10 +10909,10 @@
         <v>34500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>924300</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>26.7913</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>924300</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9949</v>
@@ -10921,10 +10931,10 @@
         <v>33800</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>953500</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>28.2101</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>953500</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>10536</v>
@@ -10943,10 +10953,10 @@
         <v>32500</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>963200</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>29.6369</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>963200</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>11610</v>
@@ -10965,10 +10975,10 @@
         <v>35400</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1007100</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>28.4492</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1007100</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>16269</v>
@@ -10987,10 +10997,10 @@
         <v>35100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>985000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>28.0627</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>985000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>10628</v>
@@ -11009,10 +11019,10 @@
         <v>35400</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>955300</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>26.9859</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>955300</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>6655</v>
@@ -11031,10 +11041,10 @@
         <v>33300</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>905900</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>27.2042</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>905900</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>2654</v>
@@ -11053,10 +11063,10 @@
         <v>26100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>624400</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>23.9234</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>624400</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1478</v>
@@ -11075,10 +11085,10 @@
         <v>24900</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>589400</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>23.6707</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>589400</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>560</v>
@@ -11097,10 +11107,10 @@
         <v>24435</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>594991</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>24.3499</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>594991</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>107</v>
@@ -11119,10 +11129,10 @@
         <v>23650</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>574170</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>24.2778</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>574170</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>234</v>
@@ -11141,10 +11151,10 @@
         <v>22800</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>528500</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>23.1798</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>528500</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>350</v>
@@ -11163,10 +11173,10 @@
         <v>22400</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>526100</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>23.4866</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>526100</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>944</v>
@@ -11185,10 +11195,10 @@
         <v>22800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>544200</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>23.8684</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>544200</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>508</v>
@@ -11207,10 +11217,10 @@
         <v>23100</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>537600</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>23.2727</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>537600</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>34</v>
@@ -11229,10 +11239,10 @@
         <v>22150</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>531000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>23.9729</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>531000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>18</v>
@@ -11251,10 +11261,10 @@
         <v>21900</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>505900</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>23.1005</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>505900</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>36</v>
@@ -11273,10 +11283,10 @@
         <v>20700</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>467300</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>22.5749</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>467300</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>113</v>
@@ -11295,10 +11305,10 @@
         <v>20200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>432200</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>21.396</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>432200</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>155</v>
@@ -11317,10 +11327,10 @@
         <v>20600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>445900</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>21.6456</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>445900</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>153</v>
@@ -11339,10 +11349,10 @@
         <v>20400</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>439600</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>21.549</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>439600</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>169</v>
@@ -11361,10 +11371,10 @@
         <v>20200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>439800</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>21.7723</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>439800</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>142</v>
@@ -11383,10 +11393,10 @@
         <v>19100</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>414300</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>21.6911</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>414300</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>16</v>
@@ -11405,10 +11415,10 @@
         <v>17400</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>355900</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>20.454</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>355900</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11427,10 +11437,10 @@
         <v>16500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>346500</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>21</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>346500</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11449,10 +11459,10 @@
         <v>15600</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>333500</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>21.3782</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>333500</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11471,10 +11481,10 @@
         <v>15900</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>338500</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>21.2893</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>338500</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11493,10 +11503,10 @@
         <v>16500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>366700</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>22.2242</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>366700</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>4</v>
@@ -11514,10 +11524,10 @@
         <v>16500</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>354400</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>21.4788</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>354400</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1</v>
@@ -11535,10 +11545,10 @@
         <v>16500</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>357000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>21.6364</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>357000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11556,10 +11566,10 @@
         <v>16600</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>366000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>22.0482</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>366000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11577,10 +11587,10 @@
         <v>16900</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>382000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>22.6036</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>382000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11598,10 +11608,10 @@
         <v>16000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>365000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>22.8125</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>365000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11619,10 +11629,10 @@
         <v>16300</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>421000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>25.8282</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>421000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11958,7 +11968,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12037,10 +12047,10 @@
         <v>27600</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>660270</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>23.9228</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>660270</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>125530.97</v>
@@ -12059,10 +12069,10 @@
         <v>26210</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>638180</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>24.3487</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>638180</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>136671.44</v>
@@ -12081,10 +12091,10 @@
         <v>30990</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>703910</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.7141</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>703910</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>115214.33</v>
@@ -12103,10 +12113,10 @@
         <v>32100</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>735470</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.9118</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>735470</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>109607.01</v>
@@ -12125,10 +12135,10 @@
         <v>33690</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>758980</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.5283</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>758980</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>123448.08</v>
@@ -12147,10 +12157,10 @@
         <v>34460</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>768060</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22.2885</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>768060</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>114146.77</v>
@@ -12169,10 +12179,10 @@
         <v>34069</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>735873</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>21.5995</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>735873</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>104535.32</v>
@@ -12191,10 +12201,10 @@
         <v>34343</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>735966.5</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>21.4297</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>735966.5</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>96592.48</v>
@@ -12213,10 +12223,10 @@
         <v>31329</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>626525.3</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>19.9983</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>626525.3</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>97216</v>
@@ -12235,10 +12245,10 @@
         <v>32991</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>709372.8</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>21.502</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>709372.8</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>95278.00999999999</v>
@@ -12257,10 +12267,10 @@
         <v>36414</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>730199.4</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>20.0527</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>730199.4</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>94215</v>
@@ -12279,10 +12289,10 @@
         <v>33781</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>688715.3</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>20.3877</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>688715.3</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>85708</v>
@@ -12301,10 +12311,10 @@
         <v>41331</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>819194</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>19.8203</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>819194</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>80382</v>
@@ -12323,10 +12333,10 @@
         <v>42854</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>843344</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>19.6795</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>843344</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>70027</v>
@@ -12345,10 +12355,10 @@
         <v>43629</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>844976</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>19.3673</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>844976</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>77978</v>
@@ -12367,10 +12377,10 @@
         <v>48000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>916200</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19.0875</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>916200</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>51522</v>
@@ -12389,10 +12399,10 @@
         <v>48000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>949400</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>19.7792</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>949400</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>53988</v>
@@ -12411,10 +12421,10 @@
         <v>50000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>977900</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>19.558</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>977900</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>56114</v>
@@ -12433,10 +12443,10 @@
         <v>50010</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1010470</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20.2054</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1010470</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>59606</v>
@@ -12455,10 +12465,10 @@
         <v>49591</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>995920</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>20.0827</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>995920</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>51041</v>
@@ -12477,10 +12487,10 @@
         <v>49369</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>921770</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>18.671</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>921770</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>49904</v>
@@ -12499,10 +12509,10 @@
         <v>49383</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>916208</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>18.5531</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>916208</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>43225</v>
@@ -12521,10 +12531,10 @@
         <v>50572</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>925189</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.2945</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>925189</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>36857</v>
@@ -12543,10 +12553,10 @@
         <v>51226</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>968833</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.9129</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>968833</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>42766</v>
@@ -12565,10 +12575,10 @@
         <v>51447</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>937650</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>18.2256</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>937650</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>32500</v>
@@ -12587,10 +12597,10 @@
         <v>50563</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>975353</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>19.2899</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>975353</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>30689</v>
@@ -12609,10 +12619,10 @@
         <v>50445</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>918768</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>18.2133</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>918768</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>25631</v>
@@ -12631,10 +12641,10 @@
         <v>48066</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>830100</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.27</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>830100</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>22123</v>
@@ -12653,10 +12663,10 @@
         <v>49288</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>906235</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18.3865</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>906235</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>17407</v>
@@ -12675,10 +12685,10 @@
         <v>50535</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>950949</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>18.8176</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>950949</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>24296</v>
@@ -12697,10 +12707,10 @@
         <v>49966</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>941533</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>18.8435</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>941533</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>22387</v>
@@ -12719,10 +12729,10 @@
         <v>49048</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>902985</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18.4102</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>902985</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>23874</v>
@@ -12741,10 +12751,10 @@
         <v>48749</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>917762</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>18.8263</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>917762</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>22678</v>
@@ -12763,10 +12773,10 @@
         <v>48725</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>910621</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>18.689</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>910621</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>14026</v>
@@ -12785,10 +12795,10 @@
         <v>49791</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>904790</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>18.1718</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>904790</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>13951</v>
@@ -12807,10 +12817,10 @@
         <v>48879</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>891200</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>18.2328</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>891200</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>11893</v>
@@ -12829,10 +12839,10 @@
         <v>47700</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>857110</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>17.9688</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>857110</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>12548</v>
@@ -12851,10 +12861,10 @@
         <v>47159</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>831200</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>17.6255</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>831200</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>7790</v>
@@ -12873,10 +12883,10 @@
         <v>46196</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>780090</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16.8865</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>780090</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>11282</v>
@@ -12895,10 +12905,10 @@
         <v>46526</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>811290</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>17.4373</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>811290</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>6807</v>
@@ -12917,10 +12927,10 @@
         <v>45412</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>806950</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>17.7695</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>806950</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>6862</v>
@@ -12939,10 +12949,10 @@
         <v>45889</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>815670</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>17.7748</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>815670</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>7686</v>
@@ -12961,10 +12971,10 @@
         <v>46277</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>827620</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>17.884</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>827620</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>19243</v>
@@ -12983,10 +12993,10 @@
         <v>46106</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>818000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>17.7417</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>818000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>8179</v>
@@ -13005,10 +13015,10 @@
         <v>46525</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>824200</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>17.7152</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>824200</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>9355</v>
@@ -13027,10 +13037,10 @@
         <v>45658</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>805140</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>17.6341</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>805140</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2658</v>
@@ -13049,10 +13059,10 @@
         <v>44149</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>782360</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>17.7209</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>782360</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>2223</v>
@@ -13071,10 +13081,10 @@
         <v>43947</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>825600</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>18.7863</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>825600</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3297</v>
@@ -13093,10 +13103,10 @@
         <v>44465</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>819840</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.4379</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>819840</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3781</v>
@@ -13115,10 +13125,10 @@
         <v>44039</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>807900</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>18.3451</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>807900</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>4711</v>
@@ -13137,10 +13147,10 @@
         <v>43231</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>787400</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>18.2138</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>787400</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>4803</v>
@@ -13159,10 +13169,10 @@
         <v>43512</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>785200</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>18.0456</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>785200</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>3960</v>
@@ -13181,10 +13191,10 @@
         <v>43172</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>758400</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>17.5669</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>758400</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>3895</v>
@@ -13203,10 +13213,10 @@
         <v>44525</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>773900</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>17.3812</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>773900</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3970</v>
@@ -13225,10 +13235,10 @@
         <v>43939</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>767790</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>17.474</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>767790</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>3243</v>
@@ -13247,10 +13257,10 @@
         <v>44888</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>703000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>15.6612</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>703000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>3286</v>
@@ -13269,10 +13279,10 @@
         <v>43935</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>738300</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>16.8044</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>738300</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3851</v>
@@ -13290,10 +13300,10 @@
         <v>44506</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>762900</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>17.1415</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>762900</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>2426</v>
@@ -13311,10 +13321,10 @@
         <v>43568</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>750200</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>17.2191</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>750200</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1905</v>
@@ -13332,10 +13342,10 @@
         <v>42590</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>751000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>17.6332</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>751000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1839</v>
@@ -13353,10 +13363,10 @@
         <v>43000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>725800</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>16.8791</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>725800</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1766</v>
@@ -13374,10 +13384,10 @@
         <v>37800</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>660700</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>17.4788</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>660700</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1539</v>
@@ -13395,10 +13405,10 @@
         <v>34900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>608300</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>17.4298</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>608300</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>977</v>
